--- a/01_要件定義/技術研課題概要.xlsx
+++ b/01_要件定義/技術研課題概要.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="161">
   <si>
     <t>表示形式</t>
     <rPh sb="0" eb="2">
@@ -1450,12 +1450,25 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>その他項目は来期対応とする</t>
+    <rPh sb="2" eb="5">
+      <t>タコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ライキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1522,6 +1535,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2204,7 +2224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2318,6 +2338,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,10 +2365,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2349,8 +2374,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2366,17 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3171,6 +3192,331 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857876" y="11639550"/>
+          <a:ext cx="990600" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552826" y="12334875"/>
+          <a:ext cx="3381374" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="17173575"/>
+          <a:ext cx="990600" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="17868900"/>
+          <a:ext cx="3381374" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="12249150"/>
+          <a:ext cx="3752849" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9731,7 +10077,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -10063,11 +10441,11 @@
       <c r="R7" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="101">
+      <c r="S7" s="110">
         <v>44256</v>
       </c>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="112"/>
       <c r="V7" s="3"/>
       <c r="W7" s="4"/>
     </row>
@@ -10088,11 +10466,11 @@
       <c r="R8" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="104" t="s">
+      <c r="S8" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="106"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="115"/>
       <c r="V8" s="3"/>
       <c r="W8" s="4"/>
     </row>
@@ -10208,14 +10586,14 @@
       <c r="O12" s="50"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="107" t="s">
+      <c r="R12" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="108"/>
-      <c r="T12" s="107" t="s">
+      <c r="S12" s="107"/>
+      <c r="T12" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="108"/>
+      <c r="U12" s="107"/>
       <c r="V12" s="77">
         <v>0.79166666666666663</v>
       </c>
@@ -10242,10 +10620,10 @@
       <c r="O13" s="50"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="110"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="103"/>
       <c r="V13" s="24"/>
       <c r="W13" s="20"/>
     </row>
@@ -10282,10 +10660,10 @@
       <c r="O14" s="50"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="110"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="103"/>
       <c r="V14" s="24"/>
       <c r="W14" s="20"/>
     </row>
@@ -10306,10 +10684,10 @@
       <c r="O15" s="50"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="110"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="103"/>
       <c r="V15" s="24"/>
       <c r="W15" s="20"/>
     </row>
@@ -10328,10 +10706,10 @@
       <c r="O16" s="50"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="110"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="103"/>
       <c r="V16" s="24"/>
       <c r="W16" s="20"/>
     </row>
@@ -10350,10 +10728,10 @@
       <c r="O17" s="50"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="110"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="103"/>
       <c r="V17" s="24"/>
       <c r="W17" s="20"/>
     </row>
@@ -10386,10 +10764,10 @@
       <c r="O18" s="50"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="110"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="103"/>
       <c r="V18" s="24"/>
       <c r="W18" s="20"/>
     </row>
@@ -10412,10 +10790,10 @@
       <c r="O19" s="50"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="110"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="103"/>
       <c r="V19" s="24"/>
       <c r="W19" s="20"/>
     </row>
@@ -10440,10 +10818,10 @@
       <c r="O20" s="50"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="110"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="103"/>
       <c r="V20" s="24"/>
       <c r="W20" s="20"/>
     </row>
@@ -10462,10 +10840,10 @@
       <c r="O21" s="50"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="110"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="103"/>
       <c r="V21" s="24"/>
       <c r="W21" s="20"/>
     </row>
@@ -10494,10 +10872,10 @@
       <c r="O22" s="50"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="110"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="103"/>
       <c r="V22" s="24"/>
       <c r="W22" s="20"/>
     </row>
@@ -10516,10 +10894,10 @@
       <c r="O23" s="50"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="115"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="105"/>
       <c r="V23" s="76"/>
       <c r="W23" s="72"/>
     </row>
@@ -10623,10 +11001,10 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="100"/>
+      <c r="J28" s="109"/>
       <c r="K28" s="4"/>
       <c r="N28" s="10"/>
       <c r="O28" s="50"/>
@@ -10635,10 +11013,10 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="99" t="s">
+      <c r="U28" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="100"/>
+      <c r="V28" s="109"/>
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.15">
@@ -11027,10 +11405,10 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="99" t="s">
+      <c r="I56" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="100"/>
+      <c r="J56" s="109"/>
       <c r="K56" s="4"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
@@ -11117,9 +11495,9 @@
       <c r="F65" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="113"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="118"/>
       <c r="J65" s="3"/>
       <c r="K65" s="4"/>
     </row>
@@ -11218,16 +11596,16 @@
       <c r="C72" s="50"/>
       <c r="D72" s="11"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="125" t="s">
+      <c r="F72" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="126" t="s">
+      <c r="G72" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="126" t="s">
+      <c r="H72" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="127"/>
+      <c r="I72" s="101"/>
       <c r="J72" s="3"/>
       <c r="K72" s="4"/>
       <c r="L72" s="1" t="s">
@@ -11276,6 +11654,9 @@
       </c>
       <c r="J75" s="3"/>
       <c r="K75" s="4"/>
+      <c r="L75" s="128" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B76" s="10"/>
@@ -11431,10 +11812,10 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="99" t="s">
+      <c r="I86" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="J86" s="100"/>
+      <c r="J86" s="109"/>
       <c r="K86" s="4"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
@@ -11648,16 +12029,16 @@
       <c r="C104" s="50"/>
       <c r="D104" s="11"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="125" t="s">
+      <c r="F104" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="G104" s="126" t="s">
+      <c r="G104" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="H104" s="126" t="s">
+      <c r="H104" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="I104" s="127"/>
+      <c r="I104" s="101"/>
       <c r="J104" s="3"/>
       <c r="K104" s="4"/>
     </row>
@@ -11827,10 +12208,10 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-      <c r="I116" s="99" t="s">
+      <c r="I116" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="J116" s="100"/>
+      <c r="J116" s="109"/>
       <c r="K116" s="4"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.15">
@@ -11871,22 +12252,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
     <mergeCell ref="I116:J116"/>
     <mergeCell ref="U28:V28"/>
     <mergeCell ref="S7:U7"/>
@@ -11903,6 +12268,22 @@
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11925,54 +12306,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="117" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="116" t="s">
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="117"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="116" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="116" t="s">
+      <c r="O3" s="124"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="S3" s="117"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="119"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="126"/>
     </row>
     <row r="4" spans="2:21" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -13293,10 +13674,10 @@
       <c r="C61" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="121">
+      <c r="D61" s="119">
         <v>44256</v>
       </c>
-      <c r="E61" s="122"/>
+      <c r="E61" s="120"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -13319,10 +13700,10 @@
       <c r="C62" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="124"/>
+      <c r="E62" s="122"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -13496,10 +13877,10 @@
       <c r="U69" s="4"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B70" s="99" t="s">
+      <c r="B70" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="100"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
       <c r="F70" s="3" t="s">
@@ -14342,9 +14723,9 @@
       <c r="B107" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="111"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="113"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="118"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -14518,10 +14899,10 @@
       <c r="U114" s="4"/>
     </row>
     <row r="115" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B115" s="99" t="s">
+      <c r="B115" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C115" s="100"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
       <c r="F115" s="3" t="s">
@@ -15686,10 +16067,10 @@
       <c r="U165" s="4"/>
     </row>
     <row r="166" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B166" s="99" t="s">
+      <c r="B166" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="C166" s="100"/>
+      <c r="C166" s="109"/>
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
       <c r="F166" s="3" t="s">
@@ -16164,10 +16545,10 @@
       <c r="U186" s="4"/>
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B187" s="99" t="s">
+      <c r="B187" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C187" s="100"/>
+      <c r="C187" s="109"/>
       <c r="D187" s="3"/>
       <c r="E187" s="4"/>
       <c r="F187" s="3" t="s">
@@ -16602,6 +16983,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="C107:E107"/>
     <mergeCell ref="B115:C115"/>
     <mergeCell ref="B166:C166"/>
@@ -16609,13 +16997,6 @@
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
